--- a/Energy Consumption8.xlsx
+++ b/Energy Consumption8.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.814670186849503</v>
+        <v>0.4447565896989806</v>
       </c>
       <c r="C2" t="n">
-        <v>1.478447558892883</v>
+        <v>0.6565057718086863</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.49478088653131</v>
+        <v>1.892803896881188</v>
       </c>
       <c r="C3" t="n">
-        <v>2.968779508078862</v>
+        <v>1.48199475587289</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.59545327016816</v>
+        <v>1.963302924079096</v>
       </c>
       <c r="C4" t="n">
-        <v>4.416773968358213</v>
+        <v>2.202644689672959</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.48658425913942</v>
+        <v>11.03952527224785</v>
       </c>
       <c r="C5" t="n">
-        <v>5.800617940139038</v>
+        <v>2.819880456966708</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.65474853717177</v>
+        <v>11.10963384970866</v>
       </c>
       <c r="C6" t="n">
-        <v>7.080902983312839</v>
+        <v>3.489030363414616</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.27854700188158</v>
+        <v>14.27474525603334</v>
       </c>
       <c r="C7" t="n">
-        <v>8.609746040057038</v>
+        <v>4.169497019391097</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.05747897203206</v>
+        <v>14.37095072489165</v>
       </c>
       <c r="C8" t="n">
-        <v>10.03470764938496</v>
+        <v>4.804509904165455</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.77076728329607</v>
+        <v>18.74205208775246</v>
       </c>
       <c r="C9" t="n">
-        <v>11.66225352810087</v>
+        <v>5.411565764825893</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.03870218351257</v>
+        <v>18.78614874055903</v>
       </c>
       <c r="C10" t="n">
-        <v>12.83490640298954</v>
+        <v>6.206170261994902</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.57346016245738</v>
+        <v>24.94495519855503</v>
       </c>
       <c r="C11" t="n">
-        <v>14.38914189359091</v>
+        <v>6.857907327572797</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.53976126750696</v>
+        <v>24.97006088317273</v>
       </c>
       <c r="C12" t="n">
-        <v>16.20655609614663</v>
+        <v>7.560907300024319</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.10151474046379</v>
+        <v>31.29742046884013</v>
       </c>
       <c r="C13" t="n">
-        <v>17.40889324627997</v>
+        <v>8.099090733474986</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.86793215439434</v>
+        <v>35.93318512432925</v>
       </c>
       <c r="C14" t="n">
-        <v>19.31910246676941</v>
+        <v>8.699604280950959</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.76540336699944</v>
+        <v>41.97090453438198</v>
       </c>
       <c r="C15" t="n">
-        <v>20.72729239763108</v>
+        <v>9.415382107315148</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.89151924695638</v>
+        <v>42.06688104087918</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09909891900913</v>
+        <v>10.04440302385245</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32.38100627456079</v>
+        <v>43.54305436741387</v>
       </c>
       <c r="C17" t="n">
-        <v>23.83889911086601</v>
+        <v>10.62383611279626</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.98135697625868</v>
+        <v>53.22130505348912</v>
       </c>
       <c r="C18" t="n">
-        <v>25.5845058288672</v>
+        <v>11.33127820246455</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.9710788288211</v>
+        <v>53.24876112344386</v>
       </c>
       <c r="C19" t="n">
-        <v>27.22221443741284</v>
+        <v>11.8834905601153</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39.79165148189202</v>
+        <v>53.31216133828053</v>
       </c>
       <c r="C20" t="n">
-        <v>28.58322342559529</v>
+        <v>12.60453721886542</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.38090070271098</v>
+        <v>53.54367418740043</v>
       </c>
       <c r="C21" t="n">
-        <v>30.48338665067037</v>
+        <v>13.27157559785099</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.30718315656999</v>
+        <v>53.70182378061736</v>
       </c>
       <c r="C22" t="n">
-        <v>32.17092181007243</v>
+        <v>13.92005867572347</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44.82248323831458</v>
+        <v>54.34011265091189</v>
       </c>
       <c r="C23" t="n">
-        <v>33.58826912462254</v>
+        <v>14.50728062593907</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45.64370106992263</v>
+        <v>54.43735986038732</v>
       </c>
       <c r="C24" t="n">
-        <v>35.63445263864239</v>
+        <v>15.11561232594714</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.75871624059658</v>
+        <v>63.84582133689691</v>
       </c>
       <c r="C25" t="n">
-        <v>36.90067535152321</v>
+        <v>15.84623366404085</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>47.76526834652791</v>
+        <v>63.86184146201311</v>
       </c>
       <c r="C26" t="n">
-        <v>39.21324142188174</v>
+        <v>16.45780705157247</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.50389211124417</v>
+        <v>64.2621994286214</v>
       </c>
       <c r="C27" t="n">
-        <v>40.9173027858685</v>
+        <v>17.22225999458368</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>51.8738281218518</v>
+        <v>65.19607471636216</v>
       </c>
       <c r="C28" t="n">
-        <v>42.60377019852515</v>
+        <v>17.83300065858448</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>52.6957389858341</v>
+        <v>65.24829109583989</v>
       </c>
       <c r="C29" t="n">
-        <v>44.06944474624247</v>
+        <v>18.45201313404672</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57.10334327130295</v>
+        <v>67.82466270367233</v>
       </c>
       <c r="C30" t="n">
-        <v>45.46616357182907</v>
+        <v>19.33214193278864</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57.73725308059234</v>
+        <v>74.10810647148182</v>
       </c>
       <c r="C31" t="n">
-        <v>47.25481445980648</v>
+        <v>20.00339638990841</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62.44170317305183</v>
+        <v>75.35570377662771</v>
       </c>
       <c r="C32" t="n">
-        <v>48.59015035122231</v>
+        <v>20.69583483061929</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.20256879931088</v>
+        <v>76.02580256991875</v>
       </c>
       <c r="C33" t="n">
-        <v>50.04806221003258</v>
+        <v>21.30597758286101</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>71.62698916661135</v>
+        <v>76.07730442948832</v>
       </c>
       <c r="C34" t="n">
-        <v>51.5299585354778</v>
+        <v>21.89811828742358</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>71.90425632390495</v>
+        <v>77.96586009814656</v>
       </c>
       <c r="C35" t="n">
-        <v>53.11070466742468</v>
+        <v>22.61408567337802</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>73.26138418073292</v>
+        <v>80.10168073858485</v>
       </c>
       <c r="C36" t="n">
-        <v>54.58367762889423</v>
+        <v>23.20804919705894</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>73.82062421594389</v>
+        <v>80.77104262082939</v>
       </c>
       <c r="C37" t="n">
-        <v>56.02797628385502</v>
+        <v>23.82593474445101</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>75.66778601668339</v>
+        <v>80.83129552967752</v>
       </c>
       <c r="C38" t="n">
-        <v>57.69013256304333</v>
+        <v>24.43547901529234</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.89330713873032</v>
+        <v>81.55346959021148</v>
       </c>
       <c r="C39" t="n">
-        <v>59.35611346703924</v>
+        <v>25.08886229050847</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82.75812446662898</v>
+        <v>81.59350169584435</v>
       </c>
       <c r="C40" t="n">
-        <v>60.98097192771132</v>
+        <v>25.79238325104663</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>88.78850308566892</v>
+        <v>88.91141908178231</v>
       </c>
       <c r="C41" t="n">
-        <v>62.69770878460228</v>
+        <v>26.6523679197785</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>88.94160077700496</v>
+        <v>90.17469245606924</v>
       </c>
       <c r="C42" t="n">
-        <v>64.36913193881473</v>
+        <v>27.20179538036021</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91.56755357466274</v>
+        <v>90.24982650559828</v>
       </c>
       <c r="C43" t="n">
-        <v>65.73954412799654</v>
+        <v>27.8551061257309</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92.80241219764366</v>
+        <v>92.26533388883108</v>
       </c>
       <c r="C44" t="n">
-        <v>67.3238576926101</v>
+        <v>28.43591586257021</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92.94839063549132</v>
+        <v>92.34116824077697</v>
       </c>
       <c r="C45" t="n">
-        <v>68.54360149370513</v>
+        <v>29.18459100326947</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.02318001307673</v>
+        <v>92.50596827054754</v>
       </c>
       <c r="C46" t="n">
-        <v>69.96288472328361</v>
+        <v>29.91138212360896</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.24421204627194</v>
+        <v>99.80538993828868</v>
       </c>
       <c r="C47" t="n">
-        <v>71.89999520124407</v>
+        <v>30.59144664013221</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.16051438319747</v>
+        <v>99.87672250723311</v>
       </c>
       <c r="C48" t="n">
-        <v>73.50163290332635</v>
+        <v>31.21469843703736</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.42870695348914</v>
+        <v>99.91903307001185</v>
       </c>
       <c r="C49" t="n">
-        <v>74.9185831712072</v>
+        <v>31.8637692663708</v>
       </c>
     </row>
   </sheetData>
